--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp1a-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp1a-Itga2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>0.107398272468</v>
+        <v>0.2113295066533333</v>
       </c>
       <c r="R2">
-        <v>0.966584452212</v>
+        <v>1.90196555988</v>
       </c>
       <c r="S2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="T2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
         <v>0.066490585112</v>
@@ -635,10 +635,10 @@
         <v>0.598415266008</v>
       </c>
       <c r="S3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="T3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>0.04476701722</v>
+        <v>0.03844584998</v>
       </c>
       <c r="R4">
-        <v>0.40290315498</v>
+        <v>0.34601264982</v>
       </c>
       <c r="S4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="T4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.002151989543333333</v>
+        <v>0.001143169255333333</v>
       </c>
       <c r="R5">
-        <v>0.01936790589</v>
+        <v>0.010288523298</v>
       </c>
       <c r="S5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="T5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
     </row>
   </sheetData>
